--- a/han/wp.xlsx
+++ b/han/wp.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyang/Desktop/Project-3/Project_3/han/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A56C50DF-C02C-5941-88B1-E58C8AF83E4C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84B0EC3-D468-DD43-AD86-DBDAC25C36EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16440"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wp" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -509,10 +509,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -867,10 +866,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:A40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1051,144 +1052,144 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>43466</v>
+      <c r="A23" s="1">
+        <v>36892</v>
       </c>
       <c r="B23">
         <v>6218713.6109999996</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>43467</v>
+      <c r="A24" s="1">
+        <v>37257</v>
       </c>
       <c r="B24">
         <v>6298315.6030000001</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>43468</v>
+      <c r="A25" s="1">
+        <v>37622</v>
       </c>
       <c r="B25">
         <v>6378512.8360000001</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>43469</v>
+      <c r="A26" s="1">
+        <v>37987</v>
       </c>
       <c r="B26">
         <v>6458277.9139999999</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <v>43470</v>
+      <c r="A27" s="1">
+        <v>38353</v>
       </c>
       <c r="B27">
         <v>6537664.0180000002</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>43471</v>
+      <c r="A28" s="1">
+        <v>38718</v>
       </c>
       <c r="B28">
         <v>6628997.4529999997</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>43472</v>
+      <c r="A29" s="1">
+        <v>39083</v>
       </c>
       <c r="B29">
         <v>6712335.0970000001</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
-        <v>43473</v>
+      <c r="A30" s="1">
+        <v>39448</v>
       </c>
       <c r="B30">
         <v>6797469.1799999997</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <v>43474</v>
+      <c r="A31" s="1">
+        <v>39814</v>
       </c>
       <c r="B31">
         <v>6879688.4409999996</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
-        <v>43475</v>
+      <c r="A32" s="1">
+        <v>40179</v>
       </c>
       <c r="B32">
         <v>6961567.6409999998</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
-        <v>43476</v>
+      <c r="A33" s="1">
+        <v>40544</v>
       </c>
       <c r="B33">
         <v>7047322.0470000003</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
-        <v>43477</v>
+      <c r="A34" s="1">
+        <v>40909</v>
       </c>
       <c r="B34">
         <v>7133331.9979999997</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
-        <v>43478</v>
+      <c r="A35" s="1">
+        <v>41275</v>
       </c>
       <c r="B35">
         <v>7219765.2410000004</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
-        <v>43479</v>
+      <c r="A36" s="1">
+        <v>41640</v>
       </c>
       <c r="B36">
         <v>7305294.335</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
-        <v>43480</v>
+      <c r="A37" s="1">
+        <v>42005</v>
       </c>
       <c r="B37">
         <v>7387509.7649999997</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
-        <v>43481</v>
+      <c r="A38" s="1">
+        <v>42370</v>
       </c>
       <c r="B38">
         <v>7473957.4689999996</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
-        <v>43482</v>
+      <c r="A39" s="1">
+        <v>42736</v>
       </c>
       <c r="B39">
         <v>7559440.1550000003</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
-        <v>43483</v>
+      <c r="A40" s="1">
+        <v>43101</v>
       </c>
       <c r="B40">
         <v>7624705.4000000004</v>
